--- a/04_Modelling/01_benthic/01_BRUVs/01_BRT_richness_BRUVS/BRT_Outputs/contrib_mod_best_fixed_reduced_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/01_BRT_richness_BRUVS/BRT_Outputs/contrib_mod_best_fixed_reduced_richness_tot_poisson.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,41 +372,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B2">
-        <v>47.02644121915321</v>
+        <v>25.60086918254953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B3">
-        <v>31.0315986193227</v>
+        <v>23.07974227803524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B4">
-        <v>12.56996546338404</v>
+        <v>17.65671645074573</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B5">
-        <v>9.371994698140039</v>
+        <v>17.50905414878059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ReefMinDist</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>16.15361793988892</v>
       </c>
     </row>
   </sheetData>
